--- a/biology/Botanique/Uvaria_bipindensis/Uvaria_bipindensis.xlsx
+++ b/biology/Botanique/Uvaria_bipindensis/Uvaria_bipindensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uvaria bipindensis Engl. [1] est une espèce de plantes de la famille des Annonaceae et du genre Uvaria selon la classification phylogénétique, endémique du Cameroun. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uvaria bipindensis Engl.  est une espèce de plantes de la famille des Annonaceae et du genre Uvaria selon la classification phylogénétique, endémique du Cameroun. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique fait référence à Bipindi, une ville au sud du Cameroun.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre peut mesurer jusqu'à 55 mètres. Il possède un tronc cylindrique, parfois légèrement enflé à la base, et son diamètre moyen à hauteur de poitrine peut atteindre 150 cm. 
-Cette grande liane se développe dans les forêts d'Afrique tropicale[2]. 
+Cette grande liane se développe dans les forêts d'Afrique tropicale. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Relativement rare, l'espèce est endémique du Cameroun, où elle a d'abord été découverte en 1896[3] par Georg August Zenker à Bipindi dans la Région du Sud, puis récoltée également en 1948 par J.P.M. Brenan dans la réserve forestière de Bakundu-Sud, dans la Région de l'Ouest[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Relativement rare, l'espèce est endémique du Cameroun, où elle a d'abord été découverte en 1896 par Georg August Zenker à Bipindi dans la Région du Sud, puis récoltée également en 1948 par J.P.M. Brenan dans la réserve forestière de Bakundu-Sud, dans la Région de l'Ouest.
 </t>
         </is>
       </c>
